--- a/biology/Botanique/Valpolicella/Valpolicella.xlsx
+++ b/biology/Botanique/Valpolicella/Valpolicella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Valpolicella est un vin italien sec de la région de Vénétie doté d'une appellation DOC depuis le 27 décembre 1990. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent près des vignobles de Bardolino et Soave en  province de Vérone dans les communes de Negrar, Marano di Valpolicella, Fumane, Sant'Ambrogio di Valpolicella et San Pietro in Cariano pour la zone classico. Les autres communes sont  Dolcè, Verona, San Martino Buon Albergo, Lavagno, Mezzane  di Sotto, Tregnago, Illasi, Colognola ai Colli, Cazzano di Tramigna, Grezzana, Pescantina, Cerro Veronese, San Mauro di Saline et Montecchia di Crosara.
 Surtout la zone classico profite du lac de Garde. Les masses d'eau, qui s'échauffent et se refroidissent lentement, limitent l'amplitude annuelle des températures.
@@ -547,7 +561,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis clair / rouge cerise avec des reflets grenat après vieillissement.
 odeur: vineux, légèrement parfumé, agréable
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,7 +625,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mets légers, pâtes, volailles, sauces tomates, grillades.
 </t>
@@ -638,7 +658,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :
 en moyenne 250 000 hl</t>
